--- a/Config/Y_演员.xlsx
+++ b/Config/Y_演员.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>##</t>
   </si>
@@ -41,6 +41,12 @@
     <t>moveSpeed</t>
   </si>
   <si>
+    <t>$defaultSkills</t>
+  </si>
+  <si>
+    <t>$defaultBuffs</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -74,6 +80,12 @@
     <t>移动速度</t>
   </si>
   <si>
+    <t>默认技能</t>
+  </si>
+  <si>
+    <t>默认Buff</t>
+  </si>
+  <si>
     <t>##default</t>
   </si>
   <si>
@@ -93,6 +105,12 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>100102</t>
   </si>
   <si>
     <t>村民</t>
@@ -1216,13 +1234,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1232,10 +1250,13 @@
     <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="28.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,70 +1281,88 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1331,187 +1370,187 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1519,47 +1558,47 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1567,35 +1606,40 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B5:H7 B8:D8 G8 B9:D9 F9:G9 B10 D10 F10:G10 B11 D11 F11:G11 B12 D12 F12:G12 B13 D13 F13:G13 B14 D14 F14:G14 B15 D15 F15:G15 B17 D17 G17" numberStoredAsText="1"/>
+    <ignoredError sqref="G17 D17 B17 F15:G15 D15 B15 F14:G14 D14 B14 F13:G13 D13 B13 F12:G12 D12 B12 F11:G11 D11 B11 F10:G10 D10 B10 F9:G9 B9:D9 G8 B8:D8 B5:H7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1606,7 +1650,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1626,77 +1670,77 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1705,7 +1749,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:7">

--- a/Config/Y_演员.xlsx
+++ b/Config/Y_演员.xlsx
@@ -101,7 +101,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Actor_Main</t>
+    <t>Actor_Main_New</t>
   </si>
   <si>
     <t>5</t>
@@ -271,10 +271,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -734,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,10 +743,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,7 +755,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1639,7 +1639,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G17 D17 B17 F15:G15 D15 B15 F14:G14 D14 B14 F13:G13 D13 B13 F12:G12 D12 B12 F11:G11 D11 B11 F10:G10 D10 B10 F9:G9 B9:D9 G8 B8:D8 B5:H7" numberStoredAsText="1"/>
+    <ignoredError sqref="B5:E5 G5:H5 B6:H7 B8:D8 G8 B9:D9 F9:G9 B10 D10 F10:G10 B11 D11 F11:G11 B12 D12 F12:G12 B13 D13 F13:G13 B14 D14 F14:G14 B15 D15 F15:G15 B17 D17 G17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Config/Y_演员.xlsx
+++ b/Config/Y_演员.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="基础信息" sheetId="1" r:id="rId1"/>
@@ -271,10 +271,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -734,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,10 +743,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,7 +755,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1639,7 +1639,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B5:E5 G5:H5 B6:H7 B8:D8 G8 B9:D9 F9:G9 B10 D10 F10:G10 B11 D11 F11:G11 B12 D12 F12:G12 B13 D13 F13:G13 B14 D14 F14:G14 B15 D15 F15:G15 B17 D17 G17" numberStoredAsText="1"/>
+    <ignoredError sqref="B5:E5 G5:H5 B6:H7 C8:D8 G8 C9:D9 F9:G9 B10 D10 F10:G10 B11 D11 F11:G11 B12 D12 F12:G12 B13 D13 F13:G13 B14 D14 F14:G14 B15 D15 F15:G15 B17 D17 G17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
